--- a/admin/src/main/resources/templates/parkingBlock.xlsx
+++ b/admin/src/main/resources/templates/parkingBlock.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blueg\IdeaProjects\EP\EveryParkingAdmin\src\main\resources\templete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVNIN\everyParking\EveryParkingAdmin\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C6CE55-4152-4294-B8DE-3A53EA63D849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8073A-173A-4EE3-8129-C21C7605A094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="4560" windowWidth="19170" windowHeight="10050" xr2:uid="{556DD73C-5099-457A-AE6D-52EE74F30955}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{556DD73C-5099-457A-AE6D-52EE74F30955}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    jx:area(lastCell="E5")</t>
+    jx:area(lastCell="F5")</t>
       </text>
     </comment>
     <comment ref="A4" authorId="1" shapeId="0" xr:uid="{73FFDBBC-E8C8-4C1C-B4F7-B294F4F81EA9}">
@@ -54,7 +54,7 @@
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    jjx:each(items="list" var="info" lastCell="E4")</t>
+    jx:each(items="data.list" var="item" lastCell="F4")</t>
       </text>
     </comment>
   </commentList>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,39 +72,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비용사유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발생일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.number}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.title}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.reason}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.amount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비용관리테이블</t>
+    <t>${item.BSEQ}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.PARKNAME}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.BCONT}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차단구역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.BSTART}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.BEND}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.SNAME}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +120,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +138,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,15 +174,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,78 +508,86 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2022-03-11T03:26:48.57" personId="{2F01004E-833B-4FA1-B04B-3F59C586CB9A}" id="{82A46A54-9C42-46AE-A682-65CC08547A90}">
-    <text>jx:area(lastCell="E5")</text>
+    <text>jx:area(lastCell="F5")</text>
   </threadedComment>
   <threadedComment ref="A4" dT="2022-03-11T03:26:15.58" personId="{2F01004E-833B-4FA1-B04B-3F59C586CB9A}" id="{73FFDBBC-E8C8-4C1C-B4F7-B294F4F81EA9}">
-    <text>jjx:each(items="list" var="info" lastCell="E4")</text>
+    <text>jx:each(items="data.list" var="item" lastCell="F4")</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9EE426-F2B5-4227-ACC7-18B3550F2B95}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="5" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>